--- a/maquet.xlsx
+++ b/maquet.xlsx
@@ -8,13 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\MicroTransformer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE21B139-07E1-4F04-B257-0B851999FCA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEC051C2-AE86-4683-9B08-7772237262FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FD8A72F7-38AD-45D2-9D95-712C37856DF7}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{FD8A72F7-38AD-45D2-9D95-712C37856DF7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="BackProp" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="de_dpr">BackProp!$U$8</definedName>
+    <definedName name="de_dz2">BackProp!$W$8</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -56,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="82">
   <si>
     <t>моя</t>
   </si>
@@ -97,12 +102,6 @@
     <t>кушай</t>
   </si>
   <si>
-    <t>спи</t>
-  </si>
-  <si>
-    <t>деревья</t>
-  </si>
-  <si>
     <t xml:space="preserve">небо </t>
   </si>
   <si>
@@ -115,39 +114,18 @@
     <t>огонь</t>
   </si>
   <si>
-    <t>патроны</t>
-  </si>
-  <si>
     <t>ищи</t>
   </si>
   <si>
-    <t>прячься</t>
-  </si>
-  <si>
-    <t>хоти</t>
-  </si>
-  <si>
     <t>земля</t>
   </si>
   <si>
-    <t>лови</t>
-  </si>
-  <si>
-    <t>ругай</t>
-  </si>
-  <si>
-    <t>бей</t>
-  </si>
-  <si>
     <t>смотри</t>
   </si>
   <si>
     <t>еда</t>
   </si>
   <si>
-    <t>положи</t>
-  </si>
-  <si>
     <t>START</t>
   </si>
   <si>
@@ -169,15 +147,9 @@
     <t>V</t>
   </si>
   <si>
-    <t>E + Pos</t>
-  </si>
-  <si>
     <t>E</t>
   </si>
   <si>
-    <t>Pos</t>
-  </si>
-  <si>
     <t>Embeddings</t>
   </si>
   <si>
@@ -196,17 +168,155 @@
     <t>aux for softmax</t>
   </si>
   <si>
-    <t>ATTENTION</t>
-  </si>
-  <si>
     <t>ATTENTION*V</t>
+  </si>
+  <si>
+    <t>его</t>
+  </si>
+  <si>
+    <t>был</t>
+  </si>
+  <si>
+    <t>птица</t>
+  </si>
+  <si>
+    <t>сопка</t>
+  </si>
+  <si>
+    <t>поле</t>
+  </si>
+  <si>
+    <t>деревня</t>
+  </si>
+  <si>
+    <t>город</t>
+  </si>
+  <si>
+    <t>будет</t>
+  </si>
+  <si>
+    <t>пей</t>
+  </si>
+  <si>
+    <t>Positional vectors</t>
+  </si>
+  <si>
+    <t>E + Positional</t>
+  </si>
+  <si>
+    <t>aux for positional</t>
+  </si>
+  <si>
+    <t>ATTENTION = SOFTMAX(Q*K^T/SQRT(2))</t>
+  </si>
+  <si>
+    <t>X*Q</t>
+  </si>
+  <si>
+    <t>X*K</t>
+  </si>
+  <si>
+    <t>X*V</t>
+  </si>
+  <si>
+    <t>dw1</t>
+  </si>
+  <si>
+    <t>db1</t>
+  </si>
+  <si>
+    <t>dw2</t>
+  </si>
+  <si>
+    <t>db2</t>
+  </si>
+  <si>
+    <t>old w1</t>
+  </si>
+  <si>
+    <t>old b1</t>
+  </si>
+  <si>
+    <t>old w2</t>
+  </si>
+  <si>
+    <t>old b2</t>
+  </si>
+  <si>
+    <t>old w1 + dw1</t>
+  </si>
+  <si>
+    <t>old b1 + db1</t>
+  </si>
+  <si>
+    <t>old w2 + dw2</t>
+  </si>
+  <si>
+    <t>old b2 + db2</t>
+  </si>
+  <si>
+    <t>w1*x+b1</t>
+  </si>
+  <si>
+    <t>w2*a+b2</t>
+  </si>
+  <si>
+    <t>learning rate</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>tanh(h)</t>
+  </si>
+  <si>
+    <t>error = (Pr - Y)^2</t>
+  </si>
+  <si>
+    <t>X-&gt; W1*X + B1 -&gt; H -&gt; tanh(H) -&gt;  A -&gt; W2*A + B2 -&gt; Z -&gt; sigmoid(Z) -&gt; Pr -&gt;  (Pr - Y)^2 -&gt; E</t>
+  </si>
+  <si>
+    <t>dE/dPr = 2(Pr - Y)</t>
+  </si>
+  <si>
+    <t>Pr=sigmoid(z)</t>
+  </si>
+  <si>
+    <t>dPr/dZ = sigmoid(Z)(1 - sigmoid(Z))</t>
+  </si>
+  <si>
+    <t>dZ/dW2 = A</t>
+  </si>
+  <si>
+    <t>dZ/dB2 = 1</t>
+  </si>
+  <si>
+    <t>Scaled Anti Gradients</t>
+  </si>
+  <si>
+    <t>dZ/dA = W2</t>
+  </si>
+  <si>
+    <t>dA/dH = 1 - tanh(H)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dH/dW1 = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">dH/dB1 = 1 </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.00000"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -218,6 +328,38 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="9" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -243,9 +385,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -562,33 +709,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEF75D6E-1C82-438C-A5E2-10FEDE40309C}">
   <dimension ref="A1:AC36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z28" sqref="Z28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AB20" sqref="AB20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>41</v>
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>47</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
@@ -645,22 +795,22 @@
         <f t="array" ref="R2:R3">MMULT($I$2:$J$3,Q2:Q3)</f>
         <v>-0.2794154981989263</v>
       </c>
-      <c r="T2">
+      <c r="T2" s="1">
         <v>0.42458706975870486</v>
       </c>
-      <c r="U2">
+      <c r="U2" s="1">
         <v>0.48855993246861096</v>
       </c>
-      <c r="W2">
+      <c r="W2" s="2">
         <v>0.55243747906906682</v>
       </c>
-      <c r="X2">
+      <c r="X2" s="2">
         <v>0.50366619206389573</v>
       </c>
-      <c r="Z2">
+      <c r="Z2" s="3">
         <v>0.22611984156050335</v>
       </c>
-      <c r="AA2">
+      <c r="AA2" s="3">
         <v>0.29936520332434136</v>
       </c>
     </row>
@@ -712,28 +862,28 @@
       <c r="R3">
         <v>0.96017028665036608</v>
       </c>
-      <c r="T3">
+      <c r="T3" s="1">
         <v>0.69346770064611496</v>
       </c>
-      <c r="U3">
+      <c r="U3" s="1">
         <v>6.4407052939849274E-2</v>
       </c>
-      <c r="W3">
+      <c r="W3" s="2">
         <v>0.2494695973797586</v>
       </c>
-      <c r="X3">
+      <c r="X3" s="2">
         <v>0.31896671869573057</v>
       </c>
-      <c r="Z3">
+      <c r="Z3" s="3">
         <v>0.66967301122176304</v>
       </c>
-      <c r="AA3">
+      <c r="AA3" s="3">
         <v>0.61010302999235211</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -749,6 +899,15 @@
       </c>
       <c r="G4">
         <v>-0.4161468365471423</v>
+      </c>
+      <c r="T4" t="s">
+        <v>49</v>
+      </c>
+      <c r="W4" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
@@ -835,7 +994,7 @@
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -876,7 +1035,7 @@
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -917,7 +1076,7 @@
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -952,7 +1111,7 @@
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -964,7 +1123,7 @@
         <v>3.7576720444569389E-2</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>9</v>
@@ -979,10 +1138,10 @@
         <v>10</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="T10" cm="1">
         <f t="array" ref="T10:U10">MMULT(M18:N18,$T$2:$U$3)</f>
@@ -1008,7 +1167,7 @@
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -1023,16 +1182,16 @@
         <v>31</v>
       </c>
       <c r="K11">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="L11">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M11">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="N11">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="O11">
         <v>32</v>
@@ -1064,7 +1223,7 @@
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -1076,18 +1235,18 @@
         <v>0.49596156041768125</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="W12" s="1" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -1146,7 +1305,7 @@
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -1205,7 +1364,7 @@
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -1234,12 +1393,12 @@
         <v>-0.25484264342150792</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -1290,7 +1449,7 @@
         <v>0.23123879277554532</v>
       </c>
       <c r="X16" s="1" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
@@ -1344,17 +1503,17 @@
       <c r="V17">
         <v>0.44437653573342445</v>
       </c>
-      <c r="X17" cm="1">
+      <c r="X17" s="3" cm="1">
         <f t="array" ref="X17:Y23">MMULT(P25:V31,Z5:AA11)</f>
         <v>0.44433064287908575</v>
       </c>
-      <c r="Y17">
+      <c r="Y17" s="3">
         <v>0.44978329567864117</v>
       </c>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -1403,16 +1562,16 @@
       <c r="V18">
         <v>0.16531704040023021</v>
       </c>
-      <c r="X18">
+      <c r="X18" s="3">
         <v>0.56079567357658688</v>
       </c>
-      <c r="Y18">
+      <c r="Y18" s="3">
         <v>0.57361216445130292</v>
       </c>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B19">
         <v>18</v>
@@ -1461,16 +1620,16 @@
       <c r="V19">
         <v>-0.10398023529178198</v>
       </c>
-      <c r="X19">
+      <c r="X19" s="3">
         <v>0.39788647619241635</v>
       </c>
-      <c r="Y19">
+      <c r="Y19" s="3">
         <v>0.39847699405708564</v>
       </c>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B20">
         <v>19</v>
@@ -1502,16 +1661,16 @@
       <c r="V20">
         <v>-0.10062843461918357</v>
       </c>
-      <c r="X20">
+      <c r="X20" s="3">
         <v>0.24469486947983488</v>
       </c>
-      <c r="Y20">
+      <c r="Y20" s="3">
         <v>0.23785854888495012</v>
       </c>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="B21">
         <v>20</v>
@@ -1523,7 +1682,7 @@
         <v>0.31101924505921652</v>
       </c>
       <c r="G21" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="P21">
         <v>-5.8318485009329415E-2</v>
@@ -1546,16 +1705,16 @@
       <c r="V21">
         <v>-4.211563114367832E-2</v>
       </c>
-      <c r="X21">
+      <c r="X21" s="3">
         <v>0.24863248284164863</v>
       </c>
-      <c r="Y21">
+      <c r="Y21" s="3">
         <v>0.24276459596179267</v>
       </c>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="B22">
         <v>21</v>
@@ -1619,16 +1778,16 @@
       <c r="V22">
         <v>0.16721015458991614</v>
       </c>
-      <c r="X22">
+      <c r="X22" s="3">
         <v>0.28255245289312159</v>
       </c>
-      <c r="Y22">
+      <c r="Y22" s="3">
         <v>0.27867335927273978</v>
       </c>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B23">
         <v>22</v>
@@ -1671,16 +1830,16 @@
         <f t="shared" ref="N23:N28" si="8">SUM(G23:M23)</f>
         <v>12.089695689356004</v>
       </c>
-      <c r="X23">
+      <c r="X23" s="3">
         <v>0.40470540968771823</v>
       </c>
-      <c r="Y23">
+      <c r="Y23" s="3">
         <v>0.4072410172637535</v>
       </c>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="B24">
         <v>23</v>
@@ -1724,12 +1883,12 @@
         <v>8.0986258291809925</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="B25">
         <v>24</v>
@@ -1772,38 +1931,38 @@
         <f t="shared" si="8"/>
         <v>6.5043437003664311</v>
       </c>
-      <c r="P25">
+      <c r="P25" s="4">
         <f>G22/$N22</f>
         <v>0.15138437008485597</v>
       </c>
-      <c r="Q25">
+      <c r="Q25" s="4">
         <f t="shared" ref="Q25:V25" si="9">H22/$N22</f>
         <v>0.2575541779669186</v>
       </c>
-      <c r="R25">
+      <c r="R25" s="4">
         <f t="shared" si="9"/>
         <v>0.16376802191812098</v>
       </c>
-      <c r="S25">
+      <c r="S25" s="4">
         <f t="shared" si="9"/>
         <v>9.9655492309973476E-2</v>
       </c>
-      <c r="T25">
+      <c r="T25" s="4">
         <f t="shared" si="9"/>
         <v>9.1570787509623705E-2</v>
       </c>
-      <c r="U25">
+      <c r="U25" s="4">
         <f t="shared" si="9"/>
         <v>9.574667058993494E-2</v>
       </c>
-      <c r="V25">
+      <c r="V25" s="4">
         <f t="shared" si="9"/>
         <v>0.14032047962057234</v>
       </c>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B26">
         <v>25</v>
@@ -1846,38 +2005,38 @@
         <f t="shared" si="8"/>
         <v>6.5441743850831235</v>
       </c>
-      <c r="P26">
-        <f t="shared" ref="P26:P32" si="17">G23/$N23</f>
+      <c r="P26" s="4">
+        <f t="shared" ref="P26:P31" si="17">G23/$N23</f>
         <v>0.15018124263686503</v>
       </c>
-      <c r="Q26">
-        <f t="shared" ref="Q26:Q32" si="18">H23/$N23</f>
+      <c r="Q26" s="4">
+        <f t="shared" ref="Q26:Q31" si="18">H23/$N23</f>
         <v>0.37120276464930052</v>
       </c>
-      <c r="R26">
-        <f t="shared" ref="R26:R32" si="19">I23/$N23</f>
+      <c r="R26" s="4">
+        <f t="shared" ref="R26:R31" si="19">I23/$N23</f>
         <v>0.16069279330748326</v>
       </c>
-      <c r="S26">
-        <f t="shared" ref="S26:S32" si="20">J23/$N23</f>
+      <c r="S26" s="4">
+        <f t="shared" ref="S26:S31" si="20">J23/$N23</f>
         <v>6.5760088517597709E-2</v>
       </c>
-      <c r="T26">
-        <f t="shared" ref="T26:T32" si="21">K23/$N23</f>
+      <c r="T26" s="4">
+        <f t="shared" ref="T26:T31" si="21">K23/$N23</f>
         <v>5.8398110850696273E-2</v>
       </c>
-      <c r="U26">
-        <f t="shared" ref="U26:U32" si="22">L23/$N23</f>
+      <c r="U26" s="4">
+        <f t="shared" ref="U26:U31" si="22">L23/$N23</f>
         <v>6.4769396736436988E-2</v>
       </c>
-      <c r="V26">
-        <f t="shared" ref="V26:V32" si="23">M23/$N23</f>
+      <c r="V26" s="4">
+        <f t="shared" ref="V26:V31" si="23">M23/$N23</f>
         <v>0.12899560330162019</v>
       </c>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B27">
         <v>26</v>
@@ -1920,38 +2079,38 @@
         <f t="shared" si="8"/>
         <v>6.8197021854544353</v>
       </c>
-      <c r="P27">
+      <c r="P27" s="4">
         <f t="shared" si="17"/>
         <v>0.15443873271700026</v>
       </c>
-      <c r="Q27">
+      <c r="Q27" s="4">
         <f t="shared" si="18"/>
         <v>0.2089028471759885</v>
       </c>
-      <c r="R27">
+      <c r="R27" s="4">
         <f t="shared" si="19"/>
         <v>0.15449492136699633</v>
       </c>
-      <c r="S27">
+      <c r="S27" s="4">
         <f t="shared" si="20"/>
         <v>0.11283520349869762</v>
       </c>
-      <c r="T27">
+      <c r="T27" s="4">
         <f t="shared" si="21"/>
         <v>0.10937642451508754</v>
       </c>
-      <c r="U27">
+      <c r="U27" s="4">
         <f t="shared" si="22"/>
         <v>0.1142768984357181</v>
       </c>
-      <c r="V27">
+      <c r="V27" s="4">
         <f t="shared" si="23"/>
         <v>0.14567497229051163</v>
       </c>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B28">
         <v>27</v>
@@ -1994,38 +2153,38 @@
         <f t="shared" si="8"/>
         <v>8.2646894426436432</v>
       </c>
-      <c r="P28">
+      <c r="P28" s="4">
         <f t="shared" si="17"/>
         <v>0.13400242012833802</v>
       </c>
-      <c r="Q28">
+      <c r="Q28" s="4">
         <f t="shared" si="18"/>
         <v>0.10418740635809047</v>
       </c>
-      <c r="R28">
+      <c r="R28" s="4">
         <f t="shared" si="19"/>
         <v>0.12817310466443035</v>
       </c>
-      <c r="S28">
+      <c r="S28" s="4">
         <f t="shared" si="20"/>
         <v>0.16132515464176453</v>
       </c>
-      <c r="T28">
+      <c r="T28" s="4">
         <f t="shared" si="21"/>
         <v>0.1683861485360289</v>
       </c>
-      <c r="U28">
+      <c r="U28" s="4">
         <f t="shared" si="22"/>
         <v>0.16536557396414986</v>
       </c>
-      <c r="V28">
+      <c r="V28" s="4">
         <f t="shared" si="23"/>
         <v>0.13856019170719783</v>
       </c>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="B29">
         <v>28</v>
@@ -2036,38 +2195,38 @@
       <c r="D29">
         <v>0.35025867613473483</v>
       </c>
-      <c r="P29">
+      <c r="P29" s="4">
         <f t="shared" si="17"/>
         <v>0.13348301688397629</v>
       </c>
-      <c r="Q29">
+      <c r="Q29" s="4">
         <f t="shared" si="18"/>
         <v>0.10904118513716948</v>
       </c>
-      <c r="R29">
+      <c r="R29" s="4">
         <f t="shared" si="19"/>
         <v>0.13170537578464922</v>
       </c>
-      <c r="S29">
+      <c r="S29" s="4">
         <f t="shared" si="20"/>
         <v>0.16101452289185511</v>
       </c>
-      <c r="T29">
+      <c r="T29" s="4">
         <f t="shared" si="21"/>
         <v>0.1652361008429922</v>
       </c>
-      <c r="U29">
+      <c r="U29" s="4">
         <f t="shared" si="22"/>
         <v>0.16134057029342355</v>
       </c>
-      <c r="V29">
+      <c r="V29" s="4">
         <f t="shared" si="23"/>
         <v>0.13817922816593425</v>
       </c>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="B30">
         <v>29</v>
@@ -2078,38 +2237,38 @@
       <c r="D30">
         <v>6.0188972712772237E-2</v>
       </c>
-      <c r="P30">
+      <c r="P30" s="4">
         <f t="shared" si="17"/>
         <v>0.13832707518224652</v>
       </c>
-      <c r="Q30">
+      <c r="Q30" s="4">
         <f t="shared" si="18"/>
         <v>0.13128298736309799</v>
       </c>
-      <c r="R30">
+      <c r="R30" s="4">
         <f t="shared" si="19"/>
         <v>0.14078614715149182</v>
       </c>
-      <c r="S30">
+      <c r="S30" s="4">
         <f t="shared" si="20"/>
         <v>0.1505546110312794</v>
       </c>
-      <c r="T30">
+      <c r="T30" s="4">
         <f t="shared" si="21"/>
         <v>0.15034716152767938</v>
       </c>
-      <c r="U30">
+      <c r="U30" s="4">
         <f t="shared" si="22"/>
         <v>0.14811539303527016</v>
       </c>
-      <c r="V30">
+      <c r="V30" s="4">
         <f t="shared" si="23"/>
         <v>0.14058662470893477</v>
       </c>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B31">
         <v>30</v>
@@ -2120,38 +2279,38 @@
       <c r="D31">
         <v>0.59102005824843074</v>
       </c>
-      <c r="P31">
+      <c r="P31" s="4">
         <f t="shared" si="17"/>
         <v>0.15112105821388627</v>
       </c>
-      <c r="Q31">
+      <c r="Q31" s="4">
         <f t="shared" si="18"/>
         <v>0.22097724357706222</v>
       </c>
-      <c r="R31">
+      <c r="R31" s="4">
         <f t="shared" si="19"/>
         <v>0.15947118565055066</v>
       </c>
-      <c r="S31">
+      <c r="S31" s="4">
         <f t="shared" si="20"/>
         <v>0.11160042564019798</v>
       </c>
-      <c r="T31">
+      <c r="T31" s="4">
         <f t="shared" si="21"/>
         <v>0.10514720388907448</v>
       </c>
-      <c r="U31">
+      <c r="U31" s="4">
         <f t="shared" si="22"/>
         <v>0.10866448521860632</v>
       </c>
-      <c r="V31">
+      <c r="V31" s="4">
         <f t="shared" si="23"/>
         <v>0.14301839781062209</v>
       </c>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B32">
         <v>31</v>
@@ -2165,7 +2324,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="B33">
         <v>32</v>
@@ -2179,7 +2338,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B34">
         <v>33</v>
@@ -2193,7 +2352,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="B35">
         <v>34</v>
@@ -2208,11 +2367,693 @@
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C36">
         <f ca="1">RAND()</f>
-        <v>0.34490259195895567</v>
+        <v>0.53389459122959892</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EED8E5CC-59D9-4B27-B38A-10A8A3A49871}">
+  <dimension ref="A1:Z36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M30" sqref="M30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="19" max="19" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <f ca="1">RAND() *2 - 1</f>
+        <v>0.92885311014429783</v>
+      </c>
+      <c r="B1">
+        <f ca="1">RAND()</f>
+        <v>3.7300819947496566E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>64</v>
+      </c>
+      <c r="R3" t="s">
+        <v>69</v>
+      </c>
+      <c r="T3" t="s">
+        <v>65</v>
+      </c>
+      <c r="U3" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4">
+        <f>D12+D18</f>
+        <v>0.74802322069604776</v>
+      </c>
+      <c r="E4">
+        <f>E12+E18</f>
+        <v>-0.56250786962924515</v>
+      </c>
+      <c r="G4">
+        <f>G12+G18</f>
+        <v>0.20542339490643302</v>
+      </c>
+      <c r="I4">
+        <f>I12+I18</f>
+        <v>0.42613616519529418</v>
+      </c>
+      <c r="J4">
+        <f t="shared" ref="J4:O4" si="0">J12+J18</f>
+        <v>2.9001566437362847E-2</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="0"/>
+        <v>-0.54318937151913138</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="0"/>
+        <v>0.79399810585737818</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="0"/>
+        <v>-0.10947396837913059</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="0"/>
+        <v>0.64635848570951882</v>
+      </c>
+      <c r="Q4" cm="1">
+        <f t="array" aca="1" ref="Q4" ca="1">MMULT(D4:E4, $B$5:$B$6) + G4</f>
+        <v>0.80236641021812605</v>
+      </c>
+      <c r="R4">
+        <f ca="1">(2/(1+EXP(-Q4)) - 1)</f>
+        <v>0.38096090304057473</v>
+      </c>
+      <c r="T4" cm="1">
+        <f t="array" aca="1" ref="T4" ca="1">MMULT(I4:M4, R4:R8) + O4</f>
+        <v>1.1088171071023751</v>
+      </c>
+      <c r="U4" s="5">
+        <f ca="1">1/(1+EXP(T4))</f>
+        <v>0.24809148212563009</v>
+      </c>
+      <c r="W4" s="1">
+        <f ca="1">(U4-A5)*(U4-A5)</f>
+        <v>4.4432703261496009E-2</v>
+      </c>
+      <c r="Z4" s="2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <f ca="1">B1</f>
+        <v>3.7300819947496566E-2</v>
+      </c>
+      <c r="B5">
+        <f ca="1">COS(2*PI()*$A$5)</f>
+        <v>0.97266131226432007</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ref="D5:E5" si="1">D13+D19</f>
+        <v>-0.19815270371964355</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>0.31922796561204692</v>
+      </c>
+      <c r="G5">
+        <f t="shared" ref="G5:G8" si="2">G13+G19</f>
+        <v>0.75644951864122945</v>
+      </c>
+      <c r="Q5" cm="1">
+        <f t="array" aca="1" ref="Q5" ca="1">MMULT(D5:E5, $B$5:$B$6) + G5</f>
+        <v>0.63784780953982667</v>
+      </c>
+      <c r="R5">
+        <f t="shared" ref="R5:R8" ca="1" si="3">(2/(1+EXP(-Q5)) - 1)</f>
+        <v>0.30853358622175597</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <f ca="1">SIN(2*PI()*$A$5)</f>
+        <v>0.23222827481650657</v>
+      </c>
+      <c r="D6">
+        <f t="shared" ref="D6:E6" si="4">D14+D20</f>
+        <v>-0.19416366935910179</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="4"/>
+        <v>0.24735749378919625</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="2"/>
+        <v>-0.30373508663199522</v>
+      </c>
+      <c r="Q6" cm="1">
+        <f t="array" aca="1" ref="Q6" ca="1">MMULT(D6:E6, $B$5:$B$6) + G6</f>
+        <v>-0.43514717201927494</v>
+      </c>
+      <c r="R6">
+        <f t="shared" ca="1" si="3"/>
+        <v>-0.2142041868808171</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <f t="shared" ref="D7:E7" si="5">D15+D21</f>
+        <v>-0.65413515594086857</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="5"/>
+        <v>0.82293265498475776</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="2"/>
+        <v>0.85828209603424632</v>
+      </c>
+      <c r="Q7" cm="1">
+        <f t="array" aca="1" ref="Q7" ca="1">MMULT(D7:E7, $B$5:$B$6) + G7</f>
+        <v>0.4131383676158531</v>
+      </c>
+      <c r="R7">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.20368032249896584</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <f t="shared" ref="D8:E8" si="6">D16+D22</f>
+        <v>-0.6075042708387377</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="6"/>
+        <v>-0.94716950206979411</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="2"/>
+        <v>0.57048406573286825</v>
+      </c>
+      <c r="Q8" cm="1">
+        <f t="array" aca="1" ref="Q8" ca="1">MMULT(D8:E8, $B$5:$B$6) + G8</f>
+        <v>-0.24037137497179506</v>
+      </c>
+      <c r="R8">
+        <f t="shared" ca="1" si="3"/>
+        <v>-0.11961033352090644</v>
+      </c>
+      <c r="T8">
+        <f ca="1">2*(U4-A5)</f>
+        <v>0.42158132435626705</v>
+      </c>
+      <c r="U8" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="T9">
+        <f ca="1">T8*U4*(1-U4)</f>
+        <v>7.8642664985402733E-2</v>
+      </c>
+      <c r="U9" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y9" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="T10">
+        <f ca="1">R4*$T$9</f>
+        <v>2.9959780670356411E-2</v>
+      </c>
+      <c r="U10" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y10" s="6">
+        <f ca="1">-T10*$Z$4</f>
+        <v>-2.9959780670356412E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G11" t="s">
+        <v>57</v>
+      </c>
+      <c r="I11" t="s">
+        <v>58</v>
+      </c>
+      <c r="O11" t="s">
+        <v>59</v>
+      </c>
+      <c r="T11">
+        <f t="shared" ref="T11:T14" ca="1" si="7">R5*$T$9</f>
+        <v>2.4263903457982423E-2</v>
+      </c>
+      <c r="Y11" s="6">
+        <f t="shared" ref="Y11:Y15" ca="1" si="8">-T11*$Z$4</f>
+        <v>-2.4263903457982425E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <v>0.74802322069604776</v>
+      </c>
+      <c r="E12">
+        <v>-0.56250786962924515</v>
+      </c>
+      <c r="G12">
+        <v>0.20542339490643302</v>
+      </c>
+      <c r="I12">
+        <v>0.42613616519529418</v>
+      </c>
+      <c r="J12">
+        <v>2.9001566437362847E-2</v>
+      </c>
+      <c r="K12">
+        <v>-0.54318937151913138</v>
+      </c>
+      <c r="L12">
+        <v>0.79399810585737818</v>
+      </c>
+      <c r="M12">
+        <v>-0.10947396837913059</v>
+      </c>
+      <c r="O12">
+        <v>0.64635848570951882</v>
+      </c>
+      <c r="T12">
+        <f t="shared" ca="1" si="7"/>
+        <v>-1.6845588107338699E-2</v>
+      </c>
+      <c r="Y12" s="6">
+        <f t="shared" ca="1" si="8"/>
+        <v>1.6845588107338699E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="D13">
+        <v>-0.19815270371964355</v>
+      </c>
+      <c r="E13">
+        <v>0.31922796561204692</v>
+      </c>
+      <c r="G13">
+        <v>0.75644951864122945</v>
+      </c>
+      <c r="T13">
+        <f t="shared" ca="1" si="7"/>
+        <v>1.6017963366404958E-2</v>
+      </c>
+      <c r="Y13" s="6">
+        <f t="shared" ca="1" si="8"/>
+        <v>-1.6017963366404958E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <v>-0.19416366935910179</v>
+      </c>
+      <c r="E14">
+        <v>0.24735749378919625</v>
+      </c>
+      <c r="G14">
+        <v>-0.30373508663199522</v>
+      </c>
+      <c r="T14">
+        <f t="shared" ca="1" si="7"/>
+        <v>-9.4064753878769312E-3</v>
+      </c>
+      <c r="Y14" s="6">
+        <f t="shared" ca="1" si="8"/>
+        <v>9.4064753878769314E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="D15">
+        <v>-0.65413515594086857</v>
+      </c>
+      <c r="E15">
+        <v>0.82293265498475776</v>
+      </c>
+      <c r="G15">
+        <v>0.85828209603424632</v>
+      </c>
+      <c r="T15">
+        <f ca="1">T9</f>
+        <v>7.8642664985402733E-2</v>
+      </c>
+      <c r="U15" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y15" s="6">
+        <f t="shared" ca="1" si="8"/>
+        <v>-7.8642664985402733E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="D16">
+        <v>-0.6075042708387377</v>
+      </c>
+      <c r="E16">
+        <v>-0.94716950206979411</v>
+      </c>
+      <c r="G16">
+        <v>0.57048406573286825</v>
+      </c>
+    </row>
+    <row r="17" spans="4:25" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>52</v>
+      </c>
+      <c r="G17" t="s">
+        <v>53</v>
+      </c>
+      <c r="I17" t="s">
+        <v>54</v>
+      </c>
+      <c r="O17" t="s">
+        <v>55</v>
+      </c>
+      <c r="T17" cm="1">
+        <f t="array" aca="1" ref="T17:T21" ca="1">TRANSPOSE(I4:M4)*$T$9</f>
+        <v>3.3512483677617756E-2</v>
+      </c>
+      <c r="U17" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="4:25" x14ac:dyDescent="0.25">
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <f ca="1"/>
+        <v>2.2807604733854261E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="4:25" x14ac:dyDescent="0.25">
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <f ca="1"/>
+        <v>-4.2717859768010513E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="4:25" x14ac:dyDescent="0.25">
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <f ca="1"/>
+        <v>6.2442127037986128E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="4:25" x14ac:dyDescent="0.25">
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <f ca="1"/>
+        <v>-8.6093246198625396E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="4:25" x14ac:dyDescent="0.25">
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <f ca="1">T17*(1-R4^2)</f>
+        <v>2.8648776383260344E-2</v>
+      </c>
+      <c r="U22" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23" spans="4:25" x14ac:dyDescent="0.25">
+      <c r="T23">
+        <f t="shared" ref="T23:T26" ca="1" si="9">T18*(1-R5^2)</f>
+        <v>2.0636481013371153E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="4:25" x14ac:dyDescent="0.25">
+      <c r="T24">
+        <f t="shared" ca="1" si="9"/>
+        <v>-4.0757817682509995E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="4:25" x14ac:dyDescent="0.25">
+      <c r="T25">
+        <f t="shared" ca="1" si="9"/>
+        <v>5.9851673325978356E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="4:25" x14ac:dyDescent="0.25">
+      <c r="T26">
+        <f t="shared" ca="1" si="9"/>
+        <v>-8.4861541817478486E-3</v>
+      </c>
+      <c r="Y26" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" spans="4:25" x14ac:dyDescent="0.25">
+      <c r="S27" cm="1">
+        <f t="array" aca="1" ref="S27:T31" ca="1">MMULT(T22:T26, TRANSPOSE(B5:B6))</f>
+        <v>2.7865556431709067E-2</v>
+      </c>
+      <c r="T27">
+        <f ca="1"/>
+        <v>6.6530559150884266E-3</v>
+      </c>
+      <c r="U27" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="X27">
+        <f ca="1">-S27*$Z$4</f>
+        <v>-2.7865556431709067E-3</v>
+      </c>
+      <c r="Y27">
+        <f ca="1">-T27*$Z$4</f>
+        <v>-6.6530559150884271E-4</v>
+      </c>
+    </row>
+    <row r="28" spans="4:25" x14ac:dyDescent="0.25">
+      <c r="S28">
+        <f ca="1"/>
+        <v>2.0072306702983312E-3</v>
+      </c>
+      <c r="T28">
+        <f ca="1"/>
+        <v>4.792374384018776E-4</v>
+      </c>
+      <c r="X28">
+        <f t="shared" ref="X28:X31" ca="1" si="10">-S28*$Z$4</f>
+        <v>-2.0072306702983314E-4</v>
+      </c>
+      <c r="Y28">
+        <f t="shared" ref="Y28:Y36" ca="1" si="11">-T28*$Z$4</f>
+        <v>-4.7923743840187763E-5</v>
+      </c>
+    </row>
+    <row r="29" spans="4:25" x14ac:dyDescent="0.25">
+      <c r="S29">
+        <f ca="1"/>
+        <v>-3.9643552432100077E-2</v>
+      </c>
+      <c r="T29">
+        <f ca="1"/>
+        <v>-9.4651176856950011E-3</v>
+      </c>
+      <c r="X29">
+        <f t="shared" ca="1" si="10"/>
+        <v>3.9643552432100078E-3</v>
+      </c>
+      <c r="Y29">
+        <f t="shared" ca="1" si="11"/>
+        <v>9.4651176856950018E-4</v>
+      </c>
+    </row>
+    <row r="30" spans="4:25" x14ac:dyDescent="0.25">
+      <c r="S30">
+        <f ca="1"/>
+        <v>5.8215407118461508E-2</v>
+      </c>
+      <c r="T30">
+        <f ca="1"/>
+        <v>1.3899250841373077E-2</v>
+      </c>
+      <c r="X30">
+        <f t="shared" ca="1" si="10"/>
+        <v>-5.8215407118461515E-3</v>
+      </c>
+      <c r="Y30">
+        <f t="shared" ca="1" si="11"/>
+        <v>-1.3899250841373078E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="4:25" x14ac:dyDescent="0.25">
+      <c r="S31">
+        <f ca="1"/>
+        <v>-8.2541538624962101E-3</v>
+      </c>
+      <c r="T31">
+        <f ca="1"/>
+        <v>-1.9707249454541859E-3</v>
+      </c>
+      <c r="X31">
+        <f t="shared" ca="1" si="10"/>
+        <v>8.2541538624962107E-4</v>
+      </c>
+      <c r="Y31">
+        <f t="shared" ca="1" si="11"/>
+        <v>1.970724945454186E-4</v>
+      </c>
+    </row>
+    <row r="32" spans="4:25" x14ac:dyDescent="0.25">
+      <c r="T32">
+        <f ca="1">T22</f>
+        <v>2.8648776383260344E-2</v>
+      </c>
+      <c r="U32" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y32">
+        <f t="shared" ca="1" si="11"/>
+        <v>-2.8648776383260344E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="20:25" x14ac:dyDescent="0.25">
+      <c r="T33">
+        <f t="shared" ref="T33:T36" ca="1" si="12">T23</f>
+        <v>2.0636481013371153E-3</v>
+      </c>
+      <c r="Y33">
+        <f t="shared" ca="1" si="11"/>
+        <v>-2.0636481013371153E-4</v>
+      </c>
+    </row>
+    <row r="34" spans="20:25" x14ac:dyDescent="0.25">
+      <c r="T34">
+        <f t="shared" ca="1" si="12"/>
+        <v>-4.0757817682509995E-2</v>
+      </c>
+      <c r="Y34">
+        <f t="shared" ca="1" si="11"/>
+        <v>4.0757817682509998E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="20:25" x14ac:dyDescent="0.25">
+      <c r="T35">
+        <f t="shared" ca="1" si="12"/>
+        <v>5.9851673325978356E-2</v>
+      </c>
+      <c r="Y35">
+        <f t="shared" ca="1" si="11"/>
+        <v>-5.985167332597836E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="20:25" x14ac:dyDescent="0.25">
+      <c r="T36">
+        <f t="shared" ca="1" si="12"/>
+        <v>-8.4861541817478486E-3</v>
+      </c>
+      <c r="Y36">
+        <f t="shared" ca="1" si="11"/>
+        <v>8.4861541817478489E-4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>